--- a/Ques & Ans.xlsx
+++ b/Ques & Ans.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmh7e\Desktop\CrossOver Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\Git_Repos\Code_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D941C7AD-4994-43CC-B7EE-CA7499986B87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3410E411-9B79-4CEF-8173-8F4A903F9B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4B17CB7-BA37-45D1-8C1C-BF4DF0CB0D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>If a cook can make 14 hamburgers an hour, how many hamburgers can he make in 8 hours</t>
   </si>
@@ -42,7 +42,43 @@
     <t>Answers</t>
   </si>
   <si>
-    <t>A hat store sells 900 hats</t>
+    <t>Nervous is to stressed</t>
+  </si>
+  <si>
+    <t>THOUGHTFUL is to CONSIDERATE</t>
+  </si>
+  <si>
+    <t>PAPER is to THIN as</t>
+  </si>
+  <si>
+    <t>Flea is to tiny</t>
+  </si>
+  <si>
+    <t>PROFICIENT is to PRACTICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXERCISE is to strong </t>
+  </si>
+  <si>
+    <t>The ducklink tried to -- its mother by following her every step</t>
+  </si>
+  <si>
+    <t>emulate</t>
+  </si>
+  <si>
+    <t>The journalist's article, expected to be a harshe -- of politicion, actually it was potrayed in her very positive light</t>
+  </si>
+  <si>
+    <t>critique</t>
+  </si>
+  <si>
+    <t>usually -- supporter of his team, the fan was uncharacterstictily -- about attending the opening game because forecast called for heavy rain.</t>
+  </si>
+  <si>
+    <t>Apparantly -- by convention or modesty, the vacinationar  decided to sunbathe the nude on the crowded beach</t>
+  </si>
+  <si>
+    <t>unconstrained</t>
   </si>
 </sst>
 </file>
@@ -86,13 +122,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,38 +450,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F152AB9-AC57-4BD2-838A-818678746F63}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.21875" customWidth="1"/>
+    <col min="1" max="1" width="89.21875" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ques & Ans.xlsx
+++ b/Ques & Ans.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\Git_Repos\Code_Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_GitHub_Repos\Code_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3410E411-9B79-4CEF-8173-8F4A903F9B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9160A-96F8-4ADF-A290-DD7A78DD0CEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4B17CB7-BA37-45D1-8C1C-BF4DF0CB0D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>If a cook can make 14 hamburgers an hour, how many hamburgers can he make in 8 hours</t>
   </si>
@@ -79,6 +80,72 @@
   </si>
   <si>
     <t>unconstrained</t>
+  </si>
+  <si>
+    <t>fervent, ambivalent</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A store has sale where all shirts sold out at discount of 20% . If the regular price of the shirts is 20$ how many shirts could be bought at the sale price if a shopper spent $240.</t>
+  </si>
+  <si>
+    <t>15 is 60% of what number</t>
+  </si>
+  <si>
+    <t>What would be the next group of letters in the following series?
+akje . ajif . aihg.. ahgh ?</t>
+  </si>
+  <si>
+    <t>agfi</t>
+  </si>
+  <si>
+    <t>Jeff works in the electronics store.
+People who work in the electronics store wear uniforms.
+Jeff wears a uniform</t>
+  </si>
+  <si>
+    <t>Williams Manufacturing            Williams Manufacturing
+Donaldson Realty                         Donaldson Realty
+Bullock Engineering                     Bullock Engineering
+Granger Industries                        Grainger Industries
+Richardson Architecture           Richardson Architecture</t>
+  </si>
+  <si>
+    <t>Jennings Liquors                                  Jennings Liquors
+Tibco Software Co.                             Tibco Software Inc.
+Fitch Insurance                                     Fitch Insurance
+Butler Manufacturing Co.               Butler Manufacturing Co.
+Dearborn Title Co                              Dearborn Title Co.</t>
+  </si>
+  <si>
+    <t>320 Rustic Canyon                               32 Rustic Canyon
+360 Bellfield Way                                 360 Bellfield Dr.
+9 W Third St.                                           9 W Third St.
+42 Crescent Dr.                                      42 Crescent Heights Dr.
+14 Finch St                                               14 First St.</t>
+  </si>
+  <si>
+    <t>If a university accepts 40% of those students who apply for entrance, and 75% of admitted applicants accept, what percentage of total applicants
+actually accept offers of admission?</t>
+  </si>
+  <si>
+    <t>Opponents of the proposal regarded it as an unnecessary
+country's crime problem.</t>
+  </si>
+  <si>
+    <t>restriction address</t>
+  </si>
+  <si>
+    <t>Always averse to conflict, the man needed to come up with a way to
+himself from an escalating disagreement between his coworkers.</t>
+  </si>
+  <si>
+    <t>extricate</t>
   </si>
 </sst>
 </file>
@@ -122,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,6 +202,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,6 +221,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5455920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1135951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A9C921-70C6-48D8-9393-D4EA79FF820F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="5455920" cy="1135950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5767010</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1280160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AEB4FD-15D5-48E0-BF87-47820081C9A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1295400"/>
+          <a:ext cx="5767010" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5775961</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1364899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7795A6-0FAC-40E7-9CB9-C244D7927A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2788921"/>
+          <a:ext cx="5775960" cy="1204878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,7 +660,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +732,9 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -535,40 +744,90 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
     </row>
   </sheetData>
@@ -580,4 +839,45 @@
     <firstFooter xml:space="preserve">&amp;LUnrestricted </firstFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C554A9EF-D91C-463C-A367-0CBA43234836}">
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="87.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LUnrestricted </oddFooter>
+    <evenFooter xml:space="preserve">&amp;LUnrestricted </evenFooter>
+    <firstFooter xml:space="preserve">&amp;LUnrestricted </firstFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Ques & Ans.xlsx
+++ b/Ques & Ans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_GitHub_Repos\Code_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9160A-96F8-4ADF-A290-DD7A78DD0CEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0D77F8-F2F3-4516-AAAD-D5FC504A6116}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4B17CB7-BA37-45D1-8C1C-BF4DF0CB0D4E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>If a cook can make 14 hamburgers an hour, how many hamburgers can he make in 8 hours</t>
   </si>
@@ -147,11 +147,215 @@
   <si>
     <t>extricate</t>
   </si>
+  <si>
+    <t>The table below shows the number of homeruns hit by Mickey Mantle and Roger Maris when they played together on theand 1964. Expressed as a percentage, how many more home runs did Maris hit in 1962?</t>
+  </si>
+  <si>
+    <t>A group of four numbers has an average (arithmetic mean) of 17. The first three numbers are 9, 32, and 19. What is the other number?</t>
+  </si>
+  <si>
+    <t>1 minute 15 sec</t>
+  </si>
+  <si>
+    <t>basketball player makes 80% of his free throws. If he attempts two free throws, what are the chances that he will miss BOTH free throws?</t>
+  </si>
+  <si>
+    <t>Pessimistic</t>
+  </si>
+  <si>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>Support is to Framework</t>
+  </si>
+  <si>
+    <t>Amusement is to Hobby</t>
+  </si>
+  <si>
+    <t>Abandon is to loyalty</t>
+  </si>
+  <si>
+    <t>Neglect is to Responsibility</t>
+  </si>
+  <si>
+    <t>The employee was asked to his 20 page report for the short presentation so that it would be more
+to the audience</t>
+  </si>
+  <si>
+    <t>conclude terse</t>
+  </si>
+  <si>
+    <t>A lasagna recipe which serves 6 people clls for 2 cup of ricotta chees</t>
+  </si>
+  <si>
+    <t>a newspaper sells for 75 cent . How much will it cost to buy five newspaper</t>
+  </si>
+  <si>
+    <t>In once month farmer produces 300 pounds of corn, in the following month he produces 35 % more. How many pounds corn does he produce in the second month</t>
+  </si>
+  <si>
+    <t>BIRD is to fly as</t>
+  </si>
+  <si>
+    <t>FISH is to CRAWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR is to VEHICLE as </t>
+  </si>
+  <si>
+    <t>ELEPHANT is to ANIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSET is to CLOTHING as </t>
+  </si>
+  <si>
+    <t>MANUAL is to INSTRUCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCELERATE is to VELOCITY as </t>
+  </si>
+  <si>
+    <t>DENIGRATE is to REPUTATION</t>
+  </si>
+  <si>
+    <t>The company's management ________ its resources extreamely carefully, in order to ensure every division maximized its profitability</t>
+  </si>
+  <si>
+    <t>hedged</t>
+  </si>
+  <si>
+    <t>Because the presecution witness' story was not _______ by other sources, the jury felt _____ to find the defendant not guilty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endorsed…reluctant </t>
+  </si>
+  <si>
+    <t>One of her daughets's unique ____ was the she always clapped her hands when she laughed.</t>
+  </si>
+  <si>
+    <t>demeanors</t>
+  </si>
+  <si>
+    <t>In a class of forty students, one fifth of the students also play on the school's football team. If four more  students from the class join the football team, what percentage of students in the class will be on the football team?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 is 30% of what number </t>
+  </si>
+  <si>
+    <t>bd..eg..hj..km..oq</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim is younger than joe, Brenda is older than Joe, Tim is older than Brenda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendelson Industries </t>
+  </si>
+  <si>
+    <t>A factory assembly line has to discard 20% of the team it produces because of quality control concerns. How many tems will have lo produce 12
+wishes to end up with 400 items that meet its standards for quality</t>
+  </si>
+  <si>
+    <t>A company has two production faces that have production capacity of 100 units per day and 60 unts per day respectively How long wi take for both locations to produce a combined total of 2.000 unts?</t>
+  </si>
+  <si>
+    <t>Because of the company's decision to roll out the new marketing strategy slowly, it was difficult to ____ the _____ new approach were not clear until almost a year later, when sales began to suffer.</t>
+  </si>
+  <si>
+    <t>determine…advantages</t>
+  </si>
+  <si>
+    <t>undettered by her family's _____ about her artistic ______, sheila decided to quite her job and enroll in art school.</t>
+  </si>
+  <si>
+    <t>misgivins..aspirations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By what percentage did the price increase between 1985 and 1995 </t>
+  </si>
+  <si>
+    <t>A group of five numbers has an average of 20. The first four numbers are 12,16,17 and 23. Whats is the fifth number?</t>
+  </si>
+  <si>
+    <t>An investor purchases shares in a company for $10/share. The shares appreciate 20% in the first year and  25% the next. What is the price of the stock after two years?</t>
+  </si>
+  <si>
+    <t>A wireless phone company has two pricing plans. Plan A costs $50/month for unlimited talk. Plan B costs $30/month for 400 minutes and $0.10 for
+each additional minute. If a consumer averages 675 minutes per month, what would be the difference in cost between the two pricing plans?</t>
+  </si>
+  <si>
+    <t>$27.50 more/month</t>
+  </si>
+  <si>
+    <t>Choose the word that is most nearly OPPOSITE to the word in capital letters</t>
+  </si>
+  <si>
+    <t>endorsement</t>
+  </si>
+  <si>
+    <t>LATENT opposite</t>
+  </si>
+  <si>
+    <t>Exposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESTING is to RIVETING </t>
+  </si>
+  <si>
+    <t>RISKY is to PERLIOUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECKLESS is to CAUTION as </t>
+  </si>
+  <si>
+    <t>MEAN to COMPASSION</t>
+  </si>
+  <si>
+    <t>Aware of the political_____of making a magnanimous gesture of support, the politician extended her best wishes to her opponent when he fell
+ill, despite the fact that she had nothing but for him_____towards rain</t>
+  </si>
+  <si>
+    <t>A builder needs to cover 10 square yards of floor with tile. Red tile cost $60 per square yard, and white tile cost $40 per square yard. If the builder
+spends exactly $480 on tile, how much of the floor will be covered with red tile?</t>
+  </si>
+  <si>
+    <t>4 square yards</t>
+  </si>
+  <si>
+    <t>A newpaper sell for 75 cents. How much 5 np will cost</t>
+  </si>
+  <si>
+    <t>On one month, farmer produces 300 punds of corn, In next month he produces 35% more , total??</t>
+  </si>
+  <si>
+    <t>18 is 30 % of what number?</t>
+  </si>
+  <si>
+    <t>bd…eg…hj..km…?</t>
+  </si>
+  <si>
+    <t>Company has 2 prod unit with manufacturing capacity 100 &amp; 60 units each per day, combine how many days
+it will take to produce 2000 units.</t>
+  </si>
+  <si>
+    <t>12.5days</t>
+  </si>
+  <si>
+    <t>average areathmatic of 5 nrs is 20, given numbers are 12, 16, 17, 23 find 5th</t>
+  </si>
+  <si>
+    <t>purchased share at $10, raised 20% in first yr &amp; 25% in next yr what is price after 2 yrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,6 +410,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,13 +442,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5455920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1135951</xdr:rowOff>
+      <xdr:rowOff>1166431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -259,7 +471,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1"/>
+          <a:off x="0" y="30481"/>
           <a:ext cx="5455920" cy="1135950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -657,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F152AB9-AC57-4BD2-838A-818678746F63}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,11 +1036,364 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="9">
+        <v>15</v>
+      </c>
+      <c r="C66" s="9">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
